--- a/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
+++ b/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\22-1\CapstoneDesign\Smart_Glass\BrailleCNN\korBrailleCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48AD871-68B3-4E91-8940-85D1B1BFAC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFE2D3-DDEA-425D-9622-B2700A6BD0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-2115" windowWidth="16440" windowHeight="28440" xr2:uid="{9DB0DFFC-071D-4433-A9EE-AA404F3F9512}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">korPredictResult!$A$1:$B$68</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">korPredictResult!$A$1:$B$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Index</t>
   </si>
@@ -259,6 +259,34 @@
   </si>
   <si>
     <t>것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러므로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리하여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,8 +373,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}" name="korPredictResult" displayName="korPredictResult" ref="A1:B68" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B68" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}" name="korPredictResult" displayName="korPredictResult" ref="A1:B75" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B75" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD8F4F98-EDC6-4911-94AF-7D6FD74F5F50}" uniqueName="1" name="Index" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{BCA9A847-95A8-48F8-8A43-C674CCC556A0}" uniqueName="2" name="korAlphabet" queryTableFieldId="2" dataDxfId="0"/>
@@ -652,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB90653-EA0B-4517-A91E-E2CF7AB541C6}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,6 +1234,62 @@
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>105</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>106</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>107</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>108</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>109</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>110</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>111</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
+++ b/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\22-1\CapstoneDesign\Smart_Glass\BrailleCNN\korBrailleCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFE2D3-DDEA-425D-9622-B2700A6BD0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A8F30-3021-4FA2-9EB3-62451DC7F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-2115" windowWidth="16440" windowHeight="28440" xr2:uid="{9DB0DFFC-071D-4433-A9EE-AA404F3F9512}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB0DFFC-071D-4433-A9EE-AA404F3F9512}"/>
   </bookViews>
   <sheets>
     <sheet name="korPredictResult" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">korPredictResult!$A$1:$B$75</definedName>
@@ -683,7 +682,7 @@
   <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1298,21 +1297,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031C151B-0915-490F-9AC3-F4253934FF9B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
+++ b/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\22-1\CapstoneDesign\Smart_Glass\BrailleCNN\korBrailleCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A8F30-3021-4FA2-9EB3-62451DC7F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69227DAF-24EA-4A6F-B081-AB826D12E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB0DFFC-071D-4433-A9EE-AA404F3F9512}"/>
+    <workbookView xWindow="19090" yWindow="-3700" windowWidth="25820" windowHeight="15620" xr2:uid="{9DB0DFFC-071D-4433-A9EE-AA404F3F9512}"/>
   </bookViews>
   <sheets>
     <sheet name="korPredictResult" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">korPredictResult!$A$1:$B$75</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">korPredictResult!$A$1:$B$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Index</t>
   </si>
@@ -54,238 +54,299 @@
     <t>korAlphabet</t>
   </si>
   <si>
+    <t>가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅟ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅒ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅙ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러므로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>것1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄴ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄷ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄹ초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄹ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅁ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅂ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅅ초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅅ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅇ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅈ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅊ초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅋ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅌ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅍ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅎ종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅏ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅔ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅕ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅖ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅗ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅘ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅛ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅝ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅣ</t>
-  </si>
-  <si>
-    <t>것1</t>
-  </si>
-  <si>
-    <t>ㄴ초</t>
-  </si>
-  <si>
-    <t>ㄷ초</t>
-  </si>
-  <si>
-    <t>ㅁ초</t>
-  </si>
-  <si>
-    <t>ㅂ초</t>
-  </si>
-  <si>
-    <t>붙임</t>
-  </si>
-  <si>
-    <t>사</t>
-  </si>
-  <si>
-    <t>억</t>
-  </si>
-  <si>
-    <t>언</t>
-  </si>
-  <si>
-    <t>얼</t>
-  </si>
-  <si>
-    <t>연</t>
-  </si>
-  <si>
-    <t>열</t>
-  </si>
-  <si>
-    <t>영</t>
-  </si>
-  <si>
-    <t>옥</t>
-  </si>
-  <si>
-    <t>온</t>
-  </si>
-  <si>
-    <t>옹</t>
-  </si>
-  <si>
-    <t>운</t>
-  </si>
-  <si>
-    <t>울</t>
-  </si>
-  <si>
-    <t>은</t>
-  </si>
-  <si>
-    <t>을</t>
-  </si>
-  <si>
-    <t>인</t>
-  </si>
-  <si>
-    <t>자</t>
-  </si>
-  <si>
-    <t>ㅋ초</t>
-  </si>
-  <si>
-    <t>ㅌ초</t>
-  </si>
-  <si>
-    <t>파</t>
-  </si>
-  <si>
-    <t>ㅎ초</t>
-  </si>
-  <si>
-    <t>가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅟ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅒ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅙ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅞ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러므로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리하여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,8 +433,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}" name="korPredictResult" displayName="korPredictResult" ref="A1:B75" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B75" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}" name="korPredictResult" displayName="korPredictResult" ref="A1:B76" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B76" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+    <sortCondition ref="A1:A76"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD8F4F98-EDC6-4911-94AF-7D6FD74F5F50}" uniqueName="1" name="Index" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{BCA9A847-95A8-48F8-8A43-C674CCC556A0}" uniqueName="2" name="korAlphabet" queryTableFieldId="2" dataDxfId="0"/>
@@ -679,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB90653-EA0B-4517-A91E-E2CF7AB541C6}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -720,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -728,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -736,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -744,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -760,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -768,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -776,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -784,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -792,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -800,7 +864,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -808,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -816,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -824,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -832,7 +896,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -840,7 +904,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -848,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -856,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -864,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -872,7 +936,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -880,7 +944,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -888,7 +952,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -896,7 +960,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -904,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -912,7 +976,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -920,7 +984,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -928,7 +992,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -936,7 +1000,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -944,7 +1008,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -952,7 +1016,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -960,7 +1024,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -968,7 +1032,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -976,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -984,7 +1048,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -992,7 +1056,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1000,7 +1064,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1008,7 +1072,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1016,7 +1080,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1024,7 +1088,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1032,7 +1096,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1040,7 +1104,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,7 +1112,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,7 +1120,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1064,7 +1128,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1072,7 +1136,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1080,7 +1144,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1088,7 +1152,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1096,7 +1160,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1104,7 +1168,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1112,7 +1176,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1120,7 +1184,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1128,7 +1192,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1136,7 +1200,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1144,7 +1208,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1152,7 +1216,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1160,7 +1224,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1168,7 +1232,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1176,7 +1240,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1184,7 +1248,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1192,103 +1256,111 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
+        <v>110</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>111</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>75</v>
+      <c r="B76" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
+++ b/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\22-1\CapstoneDesign\Smart_Glass\BrailleCNN\korBrailleCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69227DAF-24EA-4A6F-B081-AB826D12E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7613D5E2-BF47-42BC-B4AC-11A42AE6E21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-3700" windowWidth="25820" windowHeight="15620" xr2:uid="{9DB0DFFC-071D-4433-A9EE-AA404F3F9512}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Index</t>
   </si>
@@ -347,6 +347,10 @@
   </si>
   <si>
     <t>ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB90653-EA0B-4517-A91E-E2CF7AB541C6}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1180,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">

--- a/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
+++ b/BrailleCNN/korBrailleCode/한글점자 인덱싱.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\22-1\CapstoneDesign\Smart_Glass\BrailleCNN\korBrailleCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7613D5E2-BF47-42BC-B4AC-11A42AE6E21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C1427-F1FA-4942-8D25-6010BFC87927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-3700" windowWidth="25820" windowHeight="15620" xr2:uid="{9DB0DFFC-071D-4433-A9EE-AA404F3F9512}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="korPredictResult" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">korPredictResult!$A$1:$B$76</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">korPredictResult!$A$1:$B$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Index</t>
   </si>
@@ -351,6 +351,10 @@
   </si>
   <si>
     <t>온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅊ종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +441,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}" name="korPredictResult" displayName="korPredictResult" ref="A1:B76" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B76" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
-    <sortCondition ref="A1:A76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}" name="korPredictResult" displayName="korPredictResult" ref="A1:B77" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B77" xr:uid="{EB77B0CF-77B8-4D48-A340-E9E4E3B6DC6D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B77">
+    <sortCondition ref="A1:A77"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD8F4F98-EDC6-4911-94AF-7D6FD74F5F50}" uniqueName="1" name="Index" queryTableFieldId="1"/>
@@ -747,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB90653-EA0B-4517-A91E-E2CF7AB541C6}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -884,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -892,7 +896,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -900,7 +904,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -908,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -916,7 +920,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -924,7 +928,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -932,7 +936,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +944,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +952,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,7 +960,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -964,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -972,7 +976,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +984,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -988,7 +992,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,7 +1000,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1004,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1012,7 +1016,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1020,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1028,7 +1032,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1036,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1044,7 +1048,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1052,7 +1056,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1060,7 +1064,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1068,7 +1072,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1076,7 +1080,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1084,7 +1088,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1092,7 +1096,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1100,7 +1104,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1108,7 +1112,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1116,7 +1120,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1124,7 +1128,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1132,7 +1136,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1140,7 +1144,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1148,7 +1152,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1156,7 +1160,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1164,7 +1168,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1172,7 +1176,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1180,7 +1184,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1188,7 +1192,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1196,7 +1200,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1204,7 +1208,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1212,7 +1216,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1220,7 +1224,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1228,7 +1232,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1236,7 +1240,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1244,7 +1248,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1252,7 +1256,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1260,7 +1264,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1268,102 +1272,110 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
+        <v>110</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>111</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>14</v>
       </c>
     </row>
